--- a/Documents/reg.xlsx
+++ b/Documents/reg.xlsx
@@ -6258,9 +6258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2F53F1-1DEF-4AF5-9A06-940EE5BCCB38}">
   <dimension ref="A1:A1949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
